--- a/data/单文章采集.xlsx
+++ b/data/单文章采集.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://weibo.com/1742566624/Kq3WVeuxQ</t>
+          <t>https://weibo.com/6938566068/KxXwevstO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,21 +486,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>1454</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1585</t>
+          <t>6174</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>173.87</v>
+        <v>615.4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -512,14 +512,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>红V</t>
+          <t>未认证</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://weibo.com/6700634492/Kq454uJSh</t>
+          <t>https://weibo.com/5994655372/KxXs4atqf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -529,21 +529,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>297</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>314</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>440</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>46.73</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://weibo.com/2726698224/Kq4558B5Z</t>
+          <t>https://weibo.com/2864508912/KxYr2rrP7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -572,21 +572,21 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>413</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>327</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1246</t>
+          <t>667</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>116.07</v>
+        <v>93.8</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -605,7 +605,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://weibo.com/6503416356/Kq4fbfbjg</t>
+          <t>https://weibo.com/2057932402/KxXAcCZ04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -615,21 +615,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1571</t>
+          <t>1187</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5333</t>
+          <t>10110</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>510.67</v>
+        <v>829.67</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://weibo.com/3305085281/Kq4xqFkvL</t>
+          <t>https://weibo.com/6130649672/KxXs59cs6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -658,21 +658,21 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>1328</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>3686</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2772</t>
+          <t>8856</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>251.6</v>
+        <v>924.67</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://weibo.com/3129816345/Kq4lg0rqi</t>
+          <t>https://weibo.com/6173027822/KxXu722BZ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -701,21 +701,21 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2552</t>
+          <t>18094</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>5331</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21252</t>
+          <t>41486</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1668.93</v>
+        <v>4327.4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://weibo.com/6593871464/Kq4d8wpht</t>
+          <t>https://weibo.com/7007143507/KxXMn3PsM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -744,21 +744,21 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>1554</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>2048</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>15266</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>85.06999999999999</v>
+        <v>1257.87</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://weibo.com/2549228714/Kq4Bv2DfI</t>
+          <t>https://weibo.com/6105533989/Ky78PgKFj</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -787,21 +787,21 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>521</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>581</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>30.07</v>
+        <v>145.47</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -813,14 +813,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>红V</t>
+          <t>黄V</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://weibo.com/3886569008/Kq3YWggX9</t>
+          <t>https://weibo.com/6931617123/Ky6YHknBF</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -830,21 +830,21 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2333</t>
+          <t>358</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1718</t>
+          <t>467</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>18126</t>
+          <t>1339</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1478.47</v>
+        <v>144.27</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://weibo.com/5711128695/Kq7KkpqVW</t>
+          <t>https://weibo.com/1748852693/KzcTUkz68</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -873,29 +873,31 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>439</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>535</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12564</t>
+          <t>1034</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1019.2</v>
+        <v>133.87</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>27万</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -906,7 +908,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://weibo.com/5991771342/Kq7QpgaQA</t>
+          <t>https://weibo.com/1742566624/KzkoEo0Ib</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -916,29 +918,31 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>126</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>1708</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>66.59999999999999</v>
+        <v>142.27</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>182万</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -949,7 +953,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://weibo.com/6699573933/Kq7Srmcjv</t>
+          <t>https://weibo.com/3129816345/KzkuM7FwN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -959,29 +963,31 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>3132</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1745</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>21347</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>68.40000000000001</v>
+        <v>1748.27</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>182万</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -992,7 +998,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://weibo.com/1720084970/Kq7Kkb8BC</t>
+          <t>https://weibo.com/1748548681/KzkyNt1Lt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1002,40 +1008,42 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>251</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>78.8</v>
+        <v>295.8</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>182万</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>黄V</t>
+          <t>红V</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://weibo.com/3220647951/Kq7OsD1r5</t>
+          <t>https://weibo.com/3819363678/KzkoCCDB4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1045,29 +1053,31 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>251</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>164</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>209</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>91.27</v>
+        <v>41.6</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>182万</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1078,7 +1088,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://weibo.com/6628725744/Kq7OnAxrf</t>
+          <t>https://weibo.com/2989678271/KzkqF2Hoi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1088,29 +1098,31 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>656</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>491</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>2256</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>49.53</v>
+        <v>226.87</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>否</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>182万</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1121,7 +1133,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://weibo.com/3896574304/KrM8F2kRO</t>
+          <t>https://weibo.com/2726698224/KzksIsmHM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1131,21 +1143,21 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2293</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1154</t>
+          <t>177</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15962</t>
+          <t>781</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1293.93</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1154,7 +1166,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>44万</t>
+          <t>182万</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1166,7 +1178,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://weibo.com/1836698272/KrMsU2VWF</t>
+          <t>https://weibo.com/5762036471/KzunExltC</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1176,21 +1188,21 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>2155</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>27453</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>99.40000000000001</v>
+        <v>2202.8</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1209,7 +1221,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://weibo.com/2307417370/KrLWr64jC</t>
+          <t>https://weibo.com/3230715380/KzuxMgvYa</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1219,21 +1231,21 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1784</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>2423</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10.73</v>
+        <v>317.33</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1245,14 +1257,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>未认证</t>
+          <t>红V</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://weibo.com/2971804112/KrM0u2TSM</t>
+          <t>https://weibo.com/1198213514/KzEg5haO0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1262,21 +1274,21 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>139</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>517</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>61.33</v>
+        <v>324.6</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1295,25 +1307,635 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://weibo.com/2366586964/KrLSnEcm8</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
+          <t>https://weibo.com/3896574304/KzEARlf33</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1334</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1175</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>12541</t>
+        </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
+        <v>1003.33</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>红V</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://weibo.com/1905304934/KzEAS1hcS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2801</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1668</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>13315</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1185.6</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>红V</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://weibo.com/6019521111/KzEAT8P3c</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1647</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>红V</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://weibo.com/6102737862/KzENfmtrj</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3540</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2818</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>40195</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3103.53</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>红V</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://weibo.com/5126427168/KzEAT7Ixk</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>66.93000000000001</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>红V</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://weibo.com/5768458763/KzNTeosSg</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2743</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1209</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>13651</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1173.53</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>242万</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>红V</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://weibo.com/3886569008/KzQJMAQIC</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3212</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3457</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>31562</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2548.73</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>242万</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>红V</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://weibo.com/3927396512/KzO1n6CsN</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://weibo.com/2504747281/KzO7q7BvL</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://weibo.com/5100389270/KzQDGnftv</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1282</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>132</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>242万</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>红V</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://weibo.com/5129559114/KzQHLhqPR</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1586</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>185</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>242万</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>红V</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://weibo.com/5845955894/KzQxBi5oO</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>242万</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>黄V</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://weibo.com/3148758435/KzQHKqoLJ</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1042</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1475</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>242万</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>未认证</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://weibo.com/1183929802/KzQRU73tX</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://weibo.com/6552388987/KzQDIaIfX</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://weibo.com/5790531279/KzQHL0W4M</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://weibo.com/3928091972/KzQDIcWTn</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>0</v>
       </c>
     </row>
